--- a/Poeville/Data.xlsx
+++ b/Poeville/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive-105877584494075865262/My Drive/UNR/Classes/Restoration_Ecology/Labs/RestorationEcology/Poeville/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C73D846-9F7E-7042-9201-28C070B49FA9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB94344-15BA-1E4F-94DB-CDE3FEEDAB50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8300" yWindow="3460" windowWidth="28040" windowHeight="17440" xr2:uid="{451CFDA7-C466-1542-B600-AE9E7452E827}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16020" xr2:uid="{451CFDA7-C466-1542-B600-AE9E7452E827}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="25">
   <si>
     <t>Artemesia tridentata</t>
   </si>
@@ -95,12 +95,18 @@
   <si>
     <t>Burned</t>
   </si>
+  <si>
+    <t>Salsola sp.</t>
+  </si>
+  <si>
+    <t>Tetradymia canescens</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -131,6 +137,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,12 +164,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -472,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95755C89-483C-FB44-9C4A-F23F4B06491B}">
-  <dimension ref="A1:W1016"/>
+  <dimension ref="A1:W1038"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2820,13 +2833,13 @@
         <v>0</v>
       </c>
       <c r="B74" s="1">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C74" s="1">
         <v>5</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
@@ -2852,13 +2865,13 @@
         <v>1</v>
       </c>
       <c r="B75" s="1">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C75" s="1">
         <v>5</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
@@ -2881,16 +2894,16 @@
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B76" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C76" s="1">
         <v>5</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -2913,16 +2926,16 @@
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B77" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C77" s="1">
         <v>5</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -2943,18 +2956,18 @@
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
     </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="1" t="s">
-        <v>4</v>
+    <row r="78" spans="1:22" ht="20">
+      <c r="A78" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="B78" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" s="1">
         <v>5</v>
       </c>
       <c r="D78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -2977,16 +2990,16 @@
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="1">
         <v>5</v>
-      </c>
-      <c r="B79" s="1">
-        <v>0</v>
       </c>
       <c r="C79" s="1">
         <v>5</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -3008,17 +3021,17 @@
       <c r="V79" s="1"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="1" t="s">
-        <v>6</v>
+      <c r="A80" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
         <v>5</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -3041,16 +3054,16 @@
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C81" s="1">
         <v>5</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -3073,16 +3086,16 @@
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C82" s="1">
         <v>5</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -3105,16 +3118,16 @@
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B83" s="1">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C83" s="1">
         <v>5</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -3137,16 +3150,16 @@
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>6</v>
+      </c>
+      <c r="D84" s="1">
         <v>1</v>
-      </c>
-      <c r="C84" s="1">
-        <v>5</v>
-      </c>
-      <c r="D84" s="1">
-        <v>0</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -3169,16 +3182,16 @@
     </row>
     <row r="85" spans="1:22">
       <c r="A85" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B85" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C85" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3201,16 +3214,16 @@
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3233,16 +3246,16 @@
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3265,16 +3278,16 @@
     </row>
     <row r="88" spans="1:22">
       <c r="A88" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B88" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3296,17 +3309,17 @@
       <c r="V88" s="1"/>
     </row>
     <row r="89" spans="1:22">
-      <c r="A89" s="3" t="s">
-        <v>15</v>
+      <c r="A89" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D89" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3329,16 +3342,16 @@
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
       </c>
       <c r="C90" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D90" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
@@ -3360,17 +3373,17 @@
       <c r="V90" s="1"/>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="4" t="s">
-        <v>17</v>
+      <c r="A91" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
@@ -3393,16 +3406,16 @@
     </row>
     <row r="92" spans="1:22">
       <c r="A92" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C92" s="1">
         <v>6</v>
       </c>
       <c r="D92" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
@@ -3428,13 +3441,13 @@
         <v>10</v>
       </c>
       <c r="B93" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" s="1">
         <v>6</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -3457,16 +3470,16 @@
     </row>
     <row r="94" spans="1:22">
       <c r="A94" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B94" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C94" s="1">
         <v>6</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3489,16 +3502,16 @@
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B95" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C95" s="1">
         <v>6</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3521,16 +3534,16 @@
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B96" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C96" s="1">
         <v>6</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3553,16 +3566,16 @@
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C97" s="1">
         <v>6</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3585,16 +3598,16 @@
     </row>
     <row r="98" spans="1:22">
       <c r="A98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B98" s="1">
         <v>0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>12</v>
       </c>
       <c r="C98" s="1">
         <v>6</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3616,8 +3629,8 @@
       <c r="V98" s="1"/>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="1" t="s">
-        <v>7</v>
+      <c r="A99" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B99" s="1">
         <v>0</v>
@@ -3626,7 +3639,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3649,16 +3662,16 @@
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B100" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C100" s="1">
         <v>6</v>
       </c>
       <c r="D100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3680,17 +3693,17 @@
       <c r="V100" s="1"/>
     </row>
     <row r="101" spans="1:22">
-      <c r="A101" s="1" t="s">
-        <v>12</v>
+      <c r="A101" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B101" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C101" s="1">
         <v>6</v>
       </c>
       <c r="D101" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3713,13 +3726,13 @@
     </row>
     <row r="102" spans="1:22">
       <c r="A102" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B102" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C102" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102" s="1">
         <v>0</v>
@@ -3745,13 +3758,13 @@
     </row>
     <row r="103" spans="1:22">
       <c r="A103" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C103" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D103" s="1">
         <v>0</v>
@@ -3777,13 +3790,13 @@
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
       </c>
       <c r="C104" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104" s="1">
         <v>0</v>
@@ -3809,13 +3822,13 @@
     </row>
     <row r="105" spans="1:22">
       <c r="A105" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B105" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C105" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D105" s="1">
         <v>0</v>
@@ -3841,13 +3854,13 @@
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B106" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C106" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" s="1">
         <v>0</v>
@@ -3872,14 +3885,14 @@
       <c r="V106" s="1"/>
     </row>
     <row r="107" spans="1:22">
-      <c r="A107" s="3" t="s">
-        <v>15</v>
+      <c r="A107" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
       </c>
       <c r="C107" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107" s="1">
         <v>0</v>
@@ -3905,13 +3918,13 @@
     </row>
     <row r="108" spans="1:22">
       <c r="A108" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
       </c>
       <c r="C108" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D108" s="1">
         <v>0</v>
@@ -3936,14 +3949,14 @@
       <c r="V108" s="1"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="4" t="s">
-        <v>17</v>
+      <c r="A109" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
       </c>
       <c r="C109" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" s="1">
         <v>0</v>
@@ -3969,10 +3982,10 @@
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="1">
         <v>0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>11</v>
       </c>
       <c r="C110" s="1">
         <v>7</v>
@@ -4001,10 +4014,10 @@
     </row>
     <row r="111" spans="1:22">
       <c r="A111" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B111" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C111" s="1">
         <v>7</v>
@@ -4033,10 +4046,10 @@
     </row>
     <row r="112" spans="1:22">
       <c r="A112" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B112" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" s="1">
         <v>7</v>
@@ -4065,7 +4078,7 @@
     </row>
     <row r="113" spans="1:22">
       <c r="A113" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B113" s="1">
         <v>0</v>
@@ -4097,10 +4110,10 @@
     </row>
     <row r="114" spans="1:22">
       <c r="A114" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B114" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C114" s="1">
         <v>7</v>
@@ -4129,10 +4142,10 @@
     </row>
     <row r="115" spans="1:22">
       <c r="A115" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B115" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C115" s="1">
         <v>7</v>
@@ -4161,7 +4174,7 @@
     </row>
     <row r="116" spans="1:22">
       <c r="A116" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -4192,8 +4205,8 @@
       <c r="V116" s="1"/>
     </row>
     <row r="117" spans="1:22">
-      <c r="A117" s="1" t="s">
-        <v>13</v>
+      <c r="A117" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -4225,10 +4238,10 @@
     </row>
     <row r="118" spans="1:22">
       <c r="A118" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B118" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C118" s="1">
         <v>7</v>
@@ -4256,11 +4269,11 @@
       <c r="V118" s="1"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="1" t="s">
-        <v>10</v>
+      <c r="A119" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B119" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C119" s="1">
         <v>7</v>
@@ -4289,13 +4302,13 @@
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B120" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D120" s="1">
         <v>0</v>
@@ -4321,13 +4334,13 @@
     </row>
     <row r="121" spans="1:22">
       <c r="A121" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B121" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C121" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" s="1">
         <v>0</v>
@@ -4353,13 +4366,13 @@
     </row>
     <row r="122" spans="1:22">
       <c r="A122" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B122" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C122" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" s="1">
         <v>0</v>
@@ -4385,13 +4398,13 @@
     </row>
     <row r="123" spans="1:22">
       <c r="A123" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C123" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" s="1">
         <v>0</v>
@@ -4417,13 +4430,13 @@
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B124" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C124" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" s="1">
         <v>0</v>
@@ -4448,14 +4461,14 @@
       <c r="V124" s="1"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="3" t="s">
-        <v>15</v>
+      <c r="A125" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B125" s="1">
         <v>0</v>
       </c>
       <c r="C125" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D125" s="1">
         <v>0</v>
@@ -4481,13 +4494,13 @@
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B126" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C126" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" s="1">
         <v>0</v>
@@ -4512,14 +4525,14 @@
       <c r="V126" s="1"/>
     </row>
     <row r="127" spans="1:22">
-      <c r="A127" s="4" t="s">
-        <v>17</v>
+      <c r="A127" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
       </c>
       <c r="C127" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="1">
         <v>0</v>
@@ -4545,10 +4558,10 @@
     </row>
     <row r="128" spans="1:22">
       <c r="A128" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B128" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C128" s="1">
         <v>8</v>
@@ -4577,10 +4590,10 @@
     </row>
     <row r="129" spans="1:22">
       <c r="A129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B129" s="1">
         <v>3</v>
-      </c>
-      <c r="B129" s="1">
-        <v>4</v>
       </c>
       <c r="C129" s="1">
         <v>8</v>
@@ -4608,8 +4621,8 @@
       <c r="V129" s="1"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="3" t="s">
-        <v>15</v>
+      <c r="A130" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -4640,8 +4653,8 @@
       <c r="V130" s="1"/>
     </row>
     <row r="131" spans="1:22">
-      <c r="A131" s="4" t="s">
-        <v>17</v>
+      <c r="A131" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -4673,10 +4686,10 @@
     </row>
     <row r="132" spans="1:22">
       <c r="A132" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" s="1">
         <v>8</v>
@@ -4705,10 +4718,10 @@
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B133" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C133" s="1">
         <v>8</v>
@@ -4737,7 +4750,7 @@
     </row>
     <row r="134" spans="1:22">
       <c r="A134" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -4768,11 +4781,11 @@
       <c r="V134" s="1"/>
     </row>
     <row r="135" spans="1:22">
-      <c r="A135" s="1" t="s">
+      <c r="A135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="1">
         <v>0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>11</v>
       </c>
       <c r="C135" s="1">
         <v>8</v>
@@ -4801,10 +4814,10 @@
     </row>
     <row r="136" spans="1:22">
       <c r="A136" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B136" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C136" s="1">
         <v>8</v>
@@ -4832,8 +4845,8 @@
       <c r="V136" s="1"/>
     </row>
     <row r="137" spans="1:22">
-      <c r="A137" s="1" t="s">
-        <v>16</v>
+      <c r="A137" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -4865,13 +4878,13 @@
     </row>
     <row r="138" spans="1:22">
       <c r="A138" s="1" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B138" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C138" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" s="1">
         <v>0</v>
@@ -4897,13 +4910,13 @@
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C139" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" s="1">
         <v>0</v>
@@ -4929,13 +4942,13 @@
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
       </c>
       <c r="C140" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" s="1">
         <v>0</v>
@@ -4961,13 +4974,13 @@
     </row>
     <row r="141" spans="1:22">
       <c r="A141" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
       </c>
       <c r="C141" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" s="1">
         <v>0</v>
@@ -4993,13 +5006,13 @@
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B142" s="1">
         <v>6</v>
       </c>
-      <c r="B142" s="1">
-        <v>0</v>
-      </c>
       <c r="C142" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" s="1">
         <v>0</v>
@@ -5025,13 +5038,13 @@
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C143" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" s="1">
         <v>0</v>
@@ -5057,13 +5070,13 @@
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
       </c>
       <c r="C144" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" s="1">
         <v>0</v>
@@ -5089,13 +5102,13 @@
     </row>
     <row r="145" spans="1:23">
       <c r="A145" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B145" s="1">
         <v>0</v>
       </c>
       <c r="C145" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" s="1">
         <v>0</v>
@@ -5120,10 +5133,18 @@
       <c r="V145" s="1"/>
     </row>
     <row r="146" spans="1:23">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="1"/>
+      <c r="A146" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B146" s="1">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1">
+        <v>9</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -5142,13 +5163,20 @@
       <c r="T146" s="1"/>
       <c r="U146" s="1"/>
       <c r="V146" s="1"/>
-      <c r="W146" s="1"/>
     </row>
     <row r="147" spans="1:23">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B147" s="1">
+        <v>4</v>
+      </c>
+      <c r="C147" s="1">
+        <v>9</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -5167,13 +5195,20 @@
       <c r="T147" s="1"/>
       <c r="U147" s="1"/>
       <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
     </row>
     <row r="148" spans="1:23">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>9</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -5195,10 +5230,18 @@
       <c r="W148" s="1"/>
     </row>
     <row r="149" spans="1:23">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>9</v>
+      </c>
+      <c r="D149" s="1">
+        <v>0</v>
+      </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -5220,10 +5263,18 @@
       <c r="W149" s="1"/>
     </row>
     <row r="150" spans="1:23">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="1"/>
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" s="1">
+        <v>0</v>
+      </c>
+      <c r="C150" s="1">
+        <v>9</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -5245,10 +5296,18 @@
       <c r="W150" s="1"/>
     </row>
     <row r="151" spans="1:23">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" s="1">
+        <v>0</v>
+      </c>
+      <c r="C151" s="1">
+        <v>9</v>
+      </c>
+      <c r="D151" s="1">
+        <v>0</v>
+      </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -5270,10 +5329,18 @@
       <c r="W151" s="1"/>
     </row>
     <row r="152" spans="1:23">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="1"/>
+      <c r="A152" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B152" s="1">
+        <v>0</v>
+      </c>
+      <c r="C152" s="1">
+        <v>9</v>
+      </c>
+      <c r="D152" s="1">
+        <v>0</v>
+      </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -5295,10 +5362,18 @@
       <c r="W152" s="1"/>
     </row>
     <row r="153" spans="1:23">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="1"/>
+      <c r="A153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" s="1">
+        <v>0</v>
+      </c>
+      <c r="C153" s="1">
+        <v>9</v>
+      </c>
+      <c r="D153" s="1">
+        <v>0</v>
+      </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -5320,10 +5395,18 @@
       <c r="W153" s="1"/>
     </row>
     <row r="154" spans="1:23">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B154" s="1">
+        <v>0</v>
+      </c>
+      <c r="C154" s="1">
+        <v>9</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -5345,10 +5428,18 @@
       <c r="W154" s="1"/>
     </row>
     <row r="155" spans="1:23">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="1"/>
+      <c r="A155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="1">
+        <v>0</v>
+      </c>
+      <c r="C155" s="1">
+        <v>9</v>
+      </c>
+      <c r="D155" s="1">
+        <v>0</v>
+      </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -5370,10 +5461,18 @@
       <c r="W155" s="1"/>
     </row>
     <row r="156" spans="1:23">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B156" s="1">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1">
+        <v>10</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -5395,10 +5494,18 @@
       <c r="W156" s="1"/>
     </row>
     <row r="157" spans="1:23">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-      <c r="D157" s="1"/>
+      <c r="A157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4</v>
+      </c>
+      <c r="C157" s="1">
+        <v>10</v>
+      </c>
+      <c r="D157" s="1">
+        <v>0</v>
+      </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -5420,10 +5527,18 @@
       <c r="W157" s="1"/>
     </row>
     <row r="158" spans="1:23">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-      <c r="D158" s="1"/>
+      <c r="A158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B158" s="1">
+        <v>0</v>
+      </c>
+      <c r="C158" s="1">
+        <v>10</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
       <c r="G158" s="1"/>
@@ -5445,10 +5560,18 @@
       <c r="W158" s="1"/>
     </row>
     <row r="159" spans="1:23">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="1"/>
+      <c r="A159" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B159" s="1">
+        <v>0</v>
+      </c>
+      <c r="C159" s="1">
+        <v>10</v>
+      </c>
+      <c r="D159" s="1">
+        <v>0</v>
+      </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
       <c r="G159" s="1"/>
@@ -5470,10 +5593,18 @@
       <c r="W159" s="1"/>
     </row>
     <row r="160" spans="1:23">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-      <c r="D160" s="1"/>
+      <c r="A160" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B160" s="1">
+        <v>1</v>
+      </c>
+      <c r="C160" s="1">
+        <v>10</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
       <c r="G160" s="1"/>
@@ -5495,10 +5626,18 @@
       <c r="W160" s="1"/>
     </row>
     <row r="161" spans="1:23">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-      <c r="D161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B161" s="1">
+        <v>5</v>
+      </c>
+      <c r="C161" s="1">
+        <v>10</v>
+      </c>
+      <c r="D161" s="1">
+        <v>0</v>
+      </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
       <c r="G161" s="1"/>
@@ -5520,10 +5659,18 @@
       <c r="W161" s="1"/>
     </row>
     <row r="162" spans="1:23">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1"/>
+      <c r="A162" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="1">
+        <v>0</v>
+      </c>
+      <c r="C162" s="1">
+        <v>10</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
       <c r="G162" s="1"/>
@@ -5545,10 +5692,18 @@
       <c r="W162" s="1"/>
     </row>
     <row r="163" spans="1:23">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-      <c r="D163" s="1"/>
+      <c r="A163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" s="1">
+        <v>11</v>
+      </c>
+      <c r="C163" s="1">
+        <v>10</v>
+      </c>
+      <c r="D163" s="1">
+        <v>0</v>
+      </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
       <c r="G163" s="1"/>
@@ -5570,10 +5725,18 @@
       <c r="W163" s="1"/>
     </row>
     <row r="164" spans="1:23">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="1"/>
+      <c r="A164" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B164" s="1">
+        <v>4</v>
+      </c>
+      <c r="C164" s="1">
+        <v>10</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
       <c r="G164" s="1"/>
@@ -5595,10 +5758,18 @@
       <c r="W164" s="1"/>
     </row>
     <row r="165" spans="1:23">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" s="1">
+        <v>0</v>
+      </c>
+      <c r="C165" s="1">
+        <v>10</v>
+      </c>
+      <c r="D165" s="1">
+        <v>0</v>
+      </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
       <c r="G165" s="1"/>
@@ -5620,10 +5791,18 @@
       <c r="W165" s="1"/>
     </row>
     <row r="166" spans="1:23">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B166" s="1">
+        <v>2</v>
+      </c>
+      <c r="C166" s="1">
+        <v>10</v>
+      </c>
+      <c r="D166" s="1">
+        <v>0</v>
+      </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
       <c r="G166" s="1"/>
@@ -5645,10 +5824,18 @@
       <c r="W166" s="1"/>
     </row>
     <row r="167" spans="1:23">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="1">
+        <v>0</v>
+      </c>
+      <c r="C167" s="1">
+        <v>10</v>
+      </c>
+      <c r="D167" s="1">
+        <v>0</v>
+      </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
       <c r="G167" s="1"/>
@@ -5670,10 +5857,18 @@
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23">
-      <c r="A168" s="1"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
+      <c r="A168" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B168" s="1">
+        <v>0</v>
+      </c>
+      <c r="C168" s="1">
+        <v>10</v>
+      </c>
+      <c r="D168" s="1">
+        <v>0</v>
+      </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
       <c r="G168" s="1"/>
@@ -5695,10 +5890,18 @@
       <c r="W168" s="1"/>
     </row>
     <row r="169" spans="1:23">
-      <c r="A169" s="1"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-      <c r="D169" s="1"/>
+      <c r="A169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" s="1">
+        <v>0</v>
+      </c>
+      <c r="C169" s="1">
+        <v>10</v>
+      </c>
+      <c r="D169" s="1">
+        <v>0</v>
+      </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
       <c r="G169" s="1"/>
@@ -5720,10 +5923,18 @@
       <c r="W169" s="1"/>
     </row>
     <row r="170" spans="1:23">
-      <c r="A170" s="1"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-      <c r="D170" s="1"/>
+      <c r="A170" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" s="1">
+        <v>0</v>
+      </c>
+      <c r="C170" s="1">
+        <v>10</v>
+      </c>
+      <c r="D170" s="1">
+        <v>0</v>
+      </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
       <c r="G170" s="1"/>
@@ -5745,10 +5956,18 @@
       <c r="W170" s="1"/>
     </row>
     <row r="171" spans="1:23">
-      <c r="A171" s="1"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-      <c r="D171" s="1"/>
+      <c r="A171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B171" s="1">
+        <v>0</v>
+      </c>
+      <c r="C171" s="1">
+        <v>10</v>
+      </c>
+      <c r="D171" s="1">
+        <v>0</v>
+      </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
       <c r="G171" s="1"/>
@@ -5770,10 +5989,18 @@
       <c r="W171" s="1"/>
     </row>
     <row r="172" spans="1:23">
-      <c r="A172" s="1"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-      <c r="D172" s="1"/>
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1">
+        <v>0</v>
+      </c>
+      <c r="C172" s="1">
+        <v>10</v>
+      </c>
+      <c r="D172" s="1">
+        <v>0</v>
+      </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
       <c r="G172" s="1"/>
@@ -5795,10 +6022,18 @@
       <c r="W172" s="1"/>
     </row>
     <row r="173" spans="1:23">
-      <c r="A173" s="1"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="1"/>
+      <c r="A173" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173" s="1">
+        <v>0</v>
+      </c>
+      <c r="C173" s="1">
+        <v>10</v>
+      </c>
+      <c r="D173" s="1">
+        <v>0</v>
+      </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
       <c r="G173" s="1"/>
@@ -5820,10 +6055,18 @@
       <c r="W173" s="1"/>
     </row>
     <row r="174" spans="1:23">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="1"/>
+      <c r="A174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1">
+        <v>7</v>
+      </c>
+      <c r="C174" s="1">
+        <v>11</v>
+      </c>
+      <c r="D174" s="1">
+        <v>0</v>
+      </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
       <c r="G174" s="1"/>
@@ -5842,13 +6085,20 @@
       <c r="T174" s="1"/>
       <c r="U174" s="1"/>
       <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
     </row>
     <row r="175" spans="1:23">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-      <c r="D175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B175" s="1">
+        <v>6</v>
+      </c>
+      <c r="C175" s="1">
+        <v>11</v>
+      </c>
+      <c r="D175" s="1">
+        <v>0</v>
+      </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
@@ -5867,13 +6117,20 @@
       <c r="T175" s="1"/>
       <c r="U175" s="1"/>
       <c r="V175" s="1"/>
-      <c r="W175" s="1"/>
     </row>
     <row r="176" spans="1:23">
-      <c r="A176" s="1"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="1"/>
+      <c r="A176" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B176" s="1">
+        <v>7</v>
+      </c>
+      <c r="C176" s="1">
+        <v>11</v>
+      </c>
+      <c r="D176" s="1">
+        <v>0</v>
+      </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
       <c r="G176" s="1"/>
@@ -5892,13 +6149,20 @@
       <c r="T176" s="1"/>
       <c r="U176" s="1"/>
       <c r="V176" s="1"/>
-      <c r="W176" s="1"/>
-    </row>
-    <row r="177" spans="1:23">
-      <c r="A177" s="1"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="1"/>
+    </row>
+    <row r="177" spans="1:22">
+      <c r="A177" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="1">
+        <v>5</v>
+      </c>
+      <c r="C177" s="1">
+        <v>11</v>
+      </c>
+      <c r="D177" s="1">
+        <v>0</v>
+      </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
@@ -5917,13 +6181,20 @@
       <c r="T177" s="1"/>
       <c r="U177" s="1"/>
       <c r="V177" s="1"/>
-      <c r="W177" s="1"/>
-    </row>
-    <row r="178" spans="1:23">
-      <c r="A178" s="1"/>
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-      <c r="D178" s="1"/>
+    </row>
+    <row r="178" spans="1:22" ht="20">
+      <c r="A178" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178" s="1">
+        <v>0</v>
+      </c>
+      <c r="C178" s="1">
+        <v>11</v>
+      </c>
+      <c r="D178" s="1">
+        <v>0</v>
+      </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
       <c r="G178" s="1"/>
@@ -5942,13 +6213,20 @@
       <c r="T178" s="1"/>
       <c r="U178" s="1"/>
       <c r="V178" s="1"/>
-      <c r="W178" s="1"/>
-    </row>
-    <row r="179" spans="1:23">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-      <c r="D179" s="1"/>
+    </row>
+    <row r="179" spans="1:22">
+      <c r="A179" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="1">
+        <v>0</v>
+      </c>
+      <c r="C179" s="1">
+        <v>11</v>
+      </c>
+      <c r="D179" s="1">
+        <v>0</v>
+      </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
       <c r="G179" s="1"/>
@@ -5967,13 +6245,20 @@
       <c r="T179" s="1"/>
       <c r="U179" s="1"/>
       <c r="V179" s="1"/>
-      <c r="W179" s="1"/>
-    </row>
-    <row r="180" spans="1:23">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-      <c r="D180" s="1"/>
+    </row>
+    <row r="180" spans="1:22">
+      <c r="A180" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" s="1">
+        <v>0</v>
+      </c>
+      <c r="C180" s="1">
+        <v>11</v>
+      </c>
+      <c r="D180" s="1">
+        <v>0</v>
+      </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
       <c r="G180" s="1"/>
@@ -5992,13 +6277,20 @@
       <c r="T180" s="1"/>
       <c r="U180" s="1"/>
       <c r="V180" s="1"/>
-      <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="1"/>
+    </row>
+    <row r="181" spans="1:22">
+      <c r="A181" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="1">
+        <v>0</v>
+      </c>
+      <c r="C181" s="1">
+        <v>11</v>
+      </c>
+      <c r="D181" s="1">
+        <v>0</v>
+      </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
@@ -6017,13 +6309,20 @@
       <c r="T181" s="1"/>
       <c r="U181" s="1"/>
       <c r="V181" s="1"/>
-      <c r="W181" s="1"/>
-    </row>
-    <row r="182" spans="1:23">
-      <c r="A182" s="1"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-      <c r="D182" s="1"/>
+    </row>
+    <row r="182" spans="1:22">
+      <c r="A182" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="1">
+        <v>1</v>
+      </c>
+      <c r="C182" s="1">
+        <v>11</v>
+      </c>
+      <c r="D182" s="1">
+        <v>0</v>
+      </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
       <c r="G182" s="1"/>
@@ -6042,13 +6341,20 @@
       <c r="T182" s="1"/>
       <c r="U182" s="1"/>
       <c r="V182" s="1"/>
-      <c r="W182" s="1"/>
-    </row>
-    <row r="183" spans="1:23">
-      <c r="A183" s="1"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-      <c r="D183" s="1"/>
+    </row>
+    <row r="183" spans="1:22">
+      <c r="A183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B183" s="1">
+        <v>4</v>
+      </c>
+      <c r="C183" s="1">
+        <v>11</v>
+      </c>
+      <c r="D183" s="1">
+        <v>0</v>
+      </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
       <c r="G183" s="1"/>
@@ -6067,13 +6373,20 @@
       <c r="T183" s="1"/>
       <c r="U183" s="1"/>
       <c r="V183" s="1"/>
-      <c r="W183" s="1"/>
-    </row>
-    <row r="184" spans="1:23">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-      <c r="D184" s="1"/>
+    </row>
+    <row r="184" spans="1:22">
+      <c r="A184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" s="1">
+        <v>7</v>
+      </c>
+      <c r="C184" s="1">
+        <v>12</v>
+      </c>
+      <c r="D184" s="1">
+        <v>0</v>
+      </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
@@ -6092,13 +6405,20 @@
       <c r="T184" s="1"/>
       <c r="U184" s="1"/>
       <c r="V184" s="1"/>
-      <c r="W184" s="1"/>
-    </row>
-    <row r="185" spans="1:23">
-      <c r="A185" s="1"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-      <c r="D185" s="1"/>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="A185" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B185" s="1">
+        <v>6</v>
+      </c>
+      <c r="C185" s="1">
+        <v>12</v>
+      </c>
+      <c r="D185" s="1">
+        <v>0</v>
+      </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
       <c r="G185" s="1"/>
@@ -6117,13 +6437,20 @@
       <c r="T185" s="1"/>
       <c r="U185" s="1"/>
       <c r="V185" s="1"/>
-      <c r="W185" s="1"/>
-    </row>
-    <row r="186" spans="1:23">
-      <c r="A186" s="1"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186" s="1">
+        <v>0</v>
+      </c>
+      <c r="C186" s="1">
+        <v>12</v>
+      </c>
+      <c r="D186" s="1">
+        <v>0</v>
+      </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
       <c r="G186" s="1"/>
@@ -6142,13 +6469,20 @@
       <c r="T186" s="1"/>
       <c r="U186" s="1"/>
       <c r="V186" s="1"/>
-      <c r="W186" s="1"/>
-    </row>
-    <row r="187" spans="1:23">
-      <c r="A187" s="1"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-      <c r="D187" s="1"/>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="A187" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="1">
+        <v>7</v>
+      </c>
+      <c r="C187" s="1">
+        <v>12</v>
+      </c>
+      <c r="D187" s="1">
+        <v>0</v>
+      </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
       <c r="G187" s="1"/>
@@ -6167,13 +6501,20 @@
       <c r="T187" s="1"/>
       <c r="U187" s="1"/>
       <c r="V187" s="1"/>
-      <c r="W187" s="1"/>
-    </row>
-    <row r="188" spans="1:23">
-      <c r="A188" s="1"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-      <c r="D188" s="1"/>
+    </row>
+    <row r="188" spans="1:22">
+      <c r="A188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="1">
+        <v>4</v>
+      </c>
+      <c r="C188" s="1">
+        <v>12</v>
+      </c>
+      <c r="D188" s="1">
+        <v>0</v>
+      </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
@@ -6192,13 +6533,20 @@
       <c r="T188" s="1"/>
       <c r="U188" s="1"/>
       <c r="V188" s="1"/>
-      <c r="W188" s="1"/>
-    </row>
-    <row r="189" spans="1:23">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="1"/>
+    </row>
+    <row r="189" spans="1:22">
+      <c r="A189" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B189" s="1">
+        <v>0</v>
+      </c>
+      <c r="C189" s="1">
+        <v>12</v>
+      </c>
+      <c r="D189" s="1">
+        <v>0</v>
+      </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
@@ -6217,13 +6565,20 @@
       <c r="T189" s="1"/>
       <c r="U189" s="1"/>
       <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-    </row>
-    <row r="190" spans="1:23">
-      <c r="A190" s="1"/>
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-      <c r="D190" s="1"/>
+    </row>
+    <row r="190" spans="1:22">
+      <c r="A190" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="1">
+        <v>0</v>
+      </c>
+      <c r="C190" s="1">
+        <v>12</v>
+      </c>
+      <c r="D190" s="1">
+        <v>0</v>
+      </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
@@ -6242,13 +6597,20 @@
       <c r="T190" s="1"/>
       <c r="U190" s="1"/>
       <c r="V190" s="1"/>
-      <c r="W190" s="1"/>
-    </row>
-    <row r="191" spans="1:23">
-      <c r="A191" s="1"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-      <c r="D191" s="1"/>
+    </row>
+    <row r="191" spans="1:22">
+      <c r="A191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B191" s="1">
+        <v>2</v>
+      </c>
+      <c r="C191" s="1">
+        <v>12</v>
+      </c>
+      <c r="D191" s="1">
+        <v>0</v>
+      </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
@@ -6267,13 +6629,20 @@
       <c r="T191" s="1"/>
       <c r="U191" s="1"/>
       <c r="V191" s="1"/>
-      <c r="W191" s="1"/>
-    </row>
-    <row r="192" spans="1:23">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
+    </row>
+    <row r="192" spans="1:22">
+      <c r="A192" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B192" s="1">
+        <v>0</v>
+      </c>
+      <c r="C192" s="1">
+        <v>12</v>
+      </c>
+      <c r="D192" s="1">
+        <v>0</v>
+      </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
@@ -6292,13 +6661,20 @@
       <c r="T192" s="1"/>
       <c r="U192" s="1"/>
       <c r="V192" s="1"/>
-      <c r="W192" s="1"/>
     </row>
     <row r="193" spans="1:23">
-      <c r="A193" s="1"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-      <c r="D193" s="1"/>
+      <c r="A193" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="1">
+        <v>2</v>
+      </c>
+      <c r="C193" s="1">
+        <v>12</v>
+      </c>
+      <c r="D193" s="1">
+        <v>0</v>
+      </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
@@ -6317,13 +6693,20 @@
       <c r="T193" s="1"/>
       <c r="U193" s="1"/>
       <c r="V193" s="1"/>
-      <c r="W193" s="1"/>
     </row>
     <row r="194" spans="1:23">
-      <c r="A194" s="1"/>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
+      <c r="A194" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" s="1">
+        <v>1</v>
+      </c>
+      <c r="C194" s="1">
+        <v>12</v>
+      </c>
+      <c r="D194" s="1">
+        <v>0</v>
+      </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -6342,13 +6725,20 @@
       <c r="T194" s="1"/>
       <c r="U194" s="1"/>
       <c r="V194" s="1"/>
-      <c r="W194" s="1"/>
     </row>
     <row r="195" spans="1:23">
-      <c r="A195" s="1"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-      <c r="D195" s="1"/>
+      <c r="A195" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B195" s="1">
+        <v>4</v>
+      </c>
+      <c r="C195" s="1">
+        <v>12</v>
+      </c>
+      <c r="D195" s="1">
+        <v>0</v>
+      </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -6367,13 +6757,20 @@
       <c r="T195" s="1"/>
       <c r="U195" s="1"/>
       <c r="V195" s="1"/>
-      <c r="W195" s="1"/>
     </row>
     <row r="196" spans="1:23">
-      <c r="A196" s="1"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-      <c r="D196" s="1"/>
+      <c r="A196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" s="1">
+        <v>0</v>
+      </c>
+      <c r="C196" s="1">
+        <v>12</v>
+      </c>
+      <c r="D196" s="1">
+        <v>0</v>
+      </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -6392,13 +6789,20 @@
       <c r="T196" s="1"/>
       <c r="U196" s="1"/>
       <c r="V196" s="1"/>
-      <c r="W196" s="1"/>
     </row>
     <row r="197" spans="1:23">
-      <c r="A197" s="1"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-      <c r="D197" s="1"/>
+      <c r="A197" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" s="1">
+        <v>0</v>
+      </c>
+      <c r="C197" s="1">
+        <v>12</v>
+      </c>
+      <c r="D197" s="1">
+        <v>0</v>
+      </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -6417,13 +6821,20 @@
       <c r="T197" s="1"/>
       <c r="U197" s="1"/>
       <c r="V197" s="1"/>
-      <c r="W197" s="1"/>
     </row>
     <row r="198" spans="1:23">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-      <c r="D198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B198" s="1">
+        <v>0</v>
+      </c>
+      <c r="C198" s="1">
+        <v>12</v>
+      </c>
+      <c r="D198" s="1">
+        <v>0</v>
+      </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -6442,13 +6853,20 @@
       <c r="T198" s="1"/>
       <c r="U198" s="1"/>
       <c r="V198" s="1"/>
-      <c r="W198" s="1"/>
     </row>
     <row r="199" spans="1:23">
-      <c r="A199" s="1"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-      <c r="D199" s="1"/>
+      <c r="A199" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1">
+        <v>12</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0</v>
+      </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -6467,13 +6885,20 @@
       <c r="T199" s="1"/>
       <c r="U199" s="1"/>
       <c r="V199" s="1"/>
-      <c r="W199" s="1"/>
     </row>
     <row r="200" spans="1:23">
-      <c r="A200" s="1"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-      <c r="D200" s="1"/>
+      <c r="A200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B200" s="1">
+        <v>1</v>
+      </c>
+      <c r="C200" s="1">
+        <v>12</v>
+      </c>
+      <c r="D200" s="1">
+        <v>0</v>
+      </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -6492,13 +6917,20 @@
       <c r="T200" s="1"/>
       <c r="U200" s="1"/>
       <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
     </row>
     <row r="201" spans="1:23">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="1"/>
+      <c r="A201" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B201" s="1">
+        <v>0</v>
+      </c>
+      <c r="C201" s="1">
+        <v>12</v>
+      </c>
+      <c r="D201" s="1">
+        <v>0</v>
+      </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -6517,7 +6949,6 @@
       <c r="T201" s="1"/>
       <c r="U201" s="1"/>
       <c r="V201" s="1"/>
-      <c r="W201" s="1"/>
     </row>
     <row r="202" spans="1:23">
       <c r="A202" s="1"/>
@@ -26745,6 +27176,10 @@
       <c r="W1010" s="1"/>
     </row>
     <row r="1011" spans="1:23">
+      <c r="A1011" s="1"/>
+      <c r="B1011" s="1"/>
+      <c r="C1011" s="1"/>
+      <c r="D1011" s="1"/>
       <c r="E1011" s="1"/>
       <c r="F1011" s="1"/>
       <c r="G1011" s="1"/>
@@ -26766,6 +27201,10 @@
       <c r="W1011" s="1"/>
     </row>
     <row r="1012" spans="1:23">
+      <c r="A1012" s="1"/>
+      <c r="B1012" s="1"/>
+      <c r="C1012" s="1"/>
+      <c r="D1012" s="1"/>
       <c r="E1012" s="1"/>
       <c r="F1012" s="1"/>
       <c r="G1012" s="1"/>
@@ -26787,6 +27226,10 @@
       <c r="W1012" s="1"/>
     </row>
     <row r="1013" spans="1:23">
+      <c r="A1013" s="1"/>
+      <c r="B1013" s="1"/>
+      <c r="C1013" s="1"/>
+      <c r="D1013" s="1"/>
       <c r="E1013" s="1"/>
       <c r="F1013" s="1"/>
       <c r="G1013" s="1"/>
@@ -26808,6 +27251,10 @@
       <c r="W1013" s="1"/>
     </row>
     <row r="1014" spans="1:23">
+      <c r="A1014" s="1"/>
+      <c r="B1014" s="1"/>
+      <c r="C1014" s="1"/>
+      <c r="D1014" s="1"/>
       <c r="E1014" s="1"/>
       <c r="F1014" s="1"/>
       <c r="G1014" s="1"/>
@@ -26829,6 +27276,10 @@
       <c r="W1014" s="1"/>
     </row>
     <row r="1015" spans="1:23">
+      <c r="A1015" s="1"/>
+      <c r="B1015" s="1"/>
+      <c r="C1015" s="1"/>
+      <c r="D1015" s="1"/>
       <c r="E1015" s="1"/>
       <c r="F1015" s="1"/>
       <c r="G1015" s="1"/>
@@ -26850,6 +27301,10 @@
       <c r="W1015" s="1"/>
     </row>
     <row r="1016" spans="1:23">
+      <c r="A1016" s="1"/>
+      <c r="B1016" s="1"/>
+      <c r="C1016" s="1"/>
+      <c r="D1016" s="1"/>
       <c r="E1016" s="1"/>
       <c r="F1016" s="1"/>
       <c r="G1016" s="1"/>
@@ -26870,6 +27325,192 @@
       <c r="V1016" s="1"/>
       <c r="W1016" s="1"/>
     </row>
+    <row r="1017" spans="1:23">
+      <c r="A1017" s="1"/>
+      <c r="B1017" s="1"/>
+      <c r="C1017" s="1"/>
+      <c r="D1017" s="1"/>
+      <c r="E1017" s="1"/>
+      <c r="F1017" s="1"/>
+      <c r="G1017" s="1"/>
+      <c r="H1017" s="1"/>
+      <c r="I1017" s="1"/>
+      <c r="J1017" s="1"/>
+      <c r="K1017" s="1"/>
+      <c r="L1017" s="1"/>
+      <c r="M1017" s="1"/>
+      <c r="N1017" s="1"/>
+      <c r="O1017" s="1"/>
+      <c r="P1017" s="1"/>
+      <c r="Q1017" s="1"/>
+      <c r="R1017" s="1"/>
+      <c r="S1017" s="1"/>
+      <c r="T1017" s="1"/>
+      <c r="U1017" s="1"/>
+      <c r="V1017" s="1"/>
+      <c r="W1017" s="1"/>
+    </row>
+    <row r="1018" spans="1:23">
+      <c r="A1018" s="1"/>
+      <c r="B1018" s="1"/>
+      <c r="C1018" s="1"/>
+      <c r="D1018" s="1"/>
+      <c r="E1018" s="1"/>
+      <c r="F1018" s="1"/>
+      <c r="G1018" s="1"/>
+      <c r="H1018" s="1"/>
+      <c r="I1018" s="1"/>
+      <c r="J1018" s="1"/>
+      <c r="K1018" s="1"/>
+      <c r="L1018" s="1"/>
+      <c r="M1018" s="1"/>
+      <c r="N1018" s="1"/>
+      <c r="O1018" s="1"/>
+      <c r="P1018" s="1"/>
+      <c r="Q1018" s="1"/>
+      <c r="R1018" s="1"/>
+      <c r="S1018" s="1"/>
+      <c r="T1018" s="1"/>
+      <c r="U1018" s="1"/>
+      <c r="V1018" s="1"/>
+      <c r="W1018" s="1"/>
+    </row>
+    <row r="1019" spans="1:23">
+      <c r="A1019" s="1"/>
+      <c r="B1019" s="1"/>
+      <c r="C1019" s="1"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="1"/>
+    </row>
+    <row r="1020" spans="1:23">
+      <c r="A1020" s="1"/>
+      <c r="B1020" s="1"/>
+      <c r="C1020" s="1"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="1"/>
+    </row>
+    <row r="1021" spans="1:23">
+      <c r="A1021" s="1"/>
+      <c r="B1021" s="1"/>
+      <c r="C1021" s="1"/>
+      <c r="D1021" s="1"/>
+      <c r="E1021" s="1"/>
+    </row>
+    <row r="1022" spans="1:23">
+      <c r="A1022" s="1"/>
+      <c r="B1022" s="1"/>
+      <c r="C1022" s="1"/>
+      <c r="D1022" s="1"/>
+      <c r="E1022" s="1"/>
+    </row>
+    <row r="1023" spans="1:23">
+      <c r="A1023" s="1"/>
+      <c r="B1023" s="1"/>
+      <c r="C1023" s="1"/>
+      <c r="D1023" s="1"/>
+      <c r="E1023" s="1"/>
+    </row>
+    <row r="1024" spans="1:23">
+      <c r="A1024" s="1"/>
+      <c r="B1024" s="1"/>
+      <c r="C1024" s="1"/>
+      <c r="D1024" s="1"/>
+      <c r="E1024" s="1"/>
+    </row>
+    <row r="1025" spans="1:5">
+      <c r="A1025" s="1"/>
+      <c r="B1025" s="1"/>
+      <c r="C1025" s="1"/>
+      <c r="D1025" s="1"/>
+      <c r="E1025" s="1"/>
+    </row>
+    <row r="1026" spans="1:5">
+      <c r="A1026" s="1"/>
+      <c r="B1026" s="1"/>
+      <c r="C1026" s="1"/>
+      <c r="D1026" s="1"/>
+      <c r="E1026" s="1"/>
+    </row>
+    <row r="1027" spans="1:5">
+      <c r="A1027" s="1"/>
+      <c r="B1027" s="1"/>
+      <c r="C1027" s="1"/>
+      <c r="D1027" s="1"/>
+      <c r="E1027" s="1"/>
+    </row>
+    <row r="1028" spans="1:5">
+      <c r="A1028" s="1"/>
+      <c r="B1028" s="1"/>
+      <c r="C1028" s="1"/>
+      <c r="D1028" s="1"/>
+      <c r="E1028" s="1"/>
+    </row>
+    <row r="1029" spans="1:5">
+      <c r="A1029" s="1"/>
+      <c r="B1029" s="1"/>
+      <c r="C1029" s="1"/>
+      <c r="D1029" s="1"/>
+      <c r="E1029" s="1"/>
+    </row>
+    <row r="1030" spans="1:5">
+      <c r="A1030" s="1"/>
+      <c r="B1030" s="1"/>
+      <c r="C1030" s="1"/>
+      <c r="D1030" s="1"/>
+      <c r="E1030" s="1"/>
+    </row>
+    <row r="1031" spans="1:5">
+      <c r="A1031" s="1"/>
+      <c r="B1031" s="1"/>
+      <c r="C1031" s="1"/>
+      <c r="D1031" s="1"/>
+      <c r="E1031" s="1"/>
+    </row>
+    <row r="1032" spans="1:5">
+      <c r="A1032" s="1"/>
+      <c r="B1032" s="1"/>
+      <c r="C1032" s="1"/>
+      <c r="D1032" s="1"/>
+      <c r="E1032" s="1"/>
+    </row>
+    <row r="1033" spans="1:5">
+      <c r="A1033" s="1"/>
+      <c r="B1033" s="1"/>
+      <c r="C1033" s="1"/>
+      <c r="D1033" s="1"/>
+      <c r="E1033" s="1"/>
+    </row>
+    <row r="1034" spans="1:5">
+      <c r="A1034" s="1"/>
+      <c r="B1034" s="1"/>
+      <c r="C1034" s="1"/>
+      <c r="D1034" s="1"/>
+      <c r="E1034" s="1"/>
+    </row>
+    <row r="1035" spans="1:5">
+      <c r="A1035" s="1"/>
+      <c r="B1035" s="1"/>
+      <c r="C1035" s="1"/>
+      <c r="D1035" s="1"/>
+    </row>
+    <row r="1036" spans="1:5">
+      <c r="A1036" s="1"/>
+      <c r="B1036" s="1"/>
+      <c r="C1036" s="1"/>
+      <c r="D1036" s="1"/>
+    </row>
+    <row r="1037" spans="1:5">
+      <c r="A1037" s="1"/>
+      <c r="B1037" s="1"/>
+      <c r="C1037" s="1"/>
+      <c r="D1037" s="1"/>
+    </row>
+    <row r="1038" spans="1:5">
+      <c r="A1038" s="1"/>
+      <c r="B1038" s="1"/>
+      <c r="C1038" s="1"/>
+      <c r="D1038" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
